--- a/Intervention development/BCIO intervention development.xlsx
+++ b/Intervention development/BCIO intervention development.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,26 +560,30 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050273</t>
+        </is>
+      </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">behaviour change intervention development process </t>
+          <t>agent</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>An independent continuant that is a human being, group or organisation.</t>
+        </is>
+      </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>intervention development process</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>independent continuant</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr"/>
       <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Intervention development</t>
@@ -595,9 +599,7 @@
       <c r="Q2" s="2" t="inlineStr"/>
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr"/>
-      <c r="T2" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="T2" s="2" t="inlineStr"/>
       <c r="U2" s="2" t="inlineStr"/>
       <c r="V2" s="2" t="inlineStr">
         <is>
@@ -613,27 +615,19 @@
       <c r="Y2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050269</t>
-        </is>
-      </c>
+      <c r="A3" s="2" t="inlineStr"/>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>co-production</t>
+          <t xml:space="preserve">behaviour change intervention development process </t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>A development process in which the instigators of the development involve other stakeholders as development partners.</t>
-        </is>
-      </c>
+      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>development process</t>
+          <t>intervention development process</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -656,11 +650,17 @@
       <c r="Q3" s="2" t="inlineStr"/>
       <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr"/>
-      <c r="T3" s="2" t="n">
-        <v>0</v>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="W3" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -672,18 +672,18 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050270</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>collaboration process</t>
+          <t>co-production</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>A process</t>
+          <t>A development process in which developers involve other stakeholders as development partners.</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
@@ -713,8 +713,10 @@
       <c r="Q4" s="2" t="inlineStr"/>
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr"/>
-      <c r="T4" s="2" t="n">
-        <v>0</v>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U4" s="2" t="inlineStr"/>
       <c r="V4" s="2" t="inlineStr">
@@ -731,14 +733,22 @@
       <c r="Y4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr"/>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050270</t>
+        </is>
+      </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>consultation2</t>
+          <t>collaboration process</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>A process</t>
+        </is>
+      </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
@@ -766,8 +776,10 @@
       <c r="Q5" s="2" t="inlineStr"/>
       <c r="R5" s="2" t="inlineStr"/>
       <c r="S5" s="2" t="inlineStr"/>
-      <c r="T5" s="2" t="n">
-        <v>0</v>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U5" s="2" t="inlineStr"/>
       <c r="V5" s="2" t="inlineStr">
@@ -787,7 +799,7 @@
       <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>developer role</t>
+          <t>consultation</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
@@ -796,7 +808,7 @@
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>development process</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -819,8 +831,10 @@
       <c r="Q6" s="2" t="inlineStr"/>
       <c r="R6" s="2" t="inlineStr"/>
       <c r="S6" s="2" t="inlineStr"/>
-      <c r="T6" s="2" t="n">
-        <v>0</v>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U6" s="2" t="inlineStr"/>
       <c r="V6" s="2" t="inlineStr">
@@ -837,55 +851,65 @@
       <c r="Y6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>development partner</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>A person, group or organisation that has a development partner role.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>('human being' or 'group' or 'organisation') and ('has role' 'development partner role')</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>development partner role</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050274</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>developer</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>An agent with a developer role.</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>Intervention development</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
+      <c r="L7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="inlineStr"/>
+      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="inlineStr"/>
+      <c r="S7" s="2" t="inlineStr"/>
+      <c r="T7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="inlineStr"/>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="X7" s="2" t="inlineStr"/>
+      <c r="Y7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>development partner role</t>
+          <t>developer role</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
@@ -899,7 +923,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -917,8 +941,10 @@
       <c r="Q8" s="2" t="inlineStr"/>
       <c r="R8" s="2" t="inlineStr"/>
       <c r="S8" s="2" t="inlineStr"/>
-      <c r="T8" s="2" t="n">
-        <v>0</v>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U8" s="2" t="inlineStr"/>
       <c r="V8" s="2" t="inlineStr">
@@ -937,32 +963,32 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050271</t>
+          <t>BCIO:050275</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>development process</t>
+          <t>development partner</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>A process that is creation a product, commodity, service or intervention.</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr"/>
+          <t>A person, group or organisation that has a development partner role.</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>('human being' or 'group' or 'organisation') and ('has role' 'development partner role')</t>
+        </is>
+      </c>
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr"/>
       <c r="I9" s="2" t="inlineStr">
         <is>
           <t>Intervention development</t>
@@ -971,15 +997,21 @@
       <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="2" t="inlineStr"/>
       <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>development partner role</t>
+        </is>
+      </c>
       <c r="N9" s="2" t="inlineStr"/>
       <c r="O9" s="2" t="inlineStr"/>
       <c r="P9" s="2" t="inlineStr"/>
       <c r="Q9" s="2" t="inlineStr"/>
       <c r="R9" s="2" t="inlineStr"/>
       <c r="S9" s="2" t="inlineStr"/>
-      <c r="T9" s="2" t="n">
-        <v>0</v>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U9" s="2" t="inlineStr"/>
       <c r="V9" s="2" t="inlineStr">
@@ -999,7 +1031,7 @@
       <c r="A10" s="2" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>engagement</t>
+          <t>development partner role</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
@@ -1008,12 +1040,12 @@
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>development process</t>
+          <t>role</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1031,8 +1063,10 @@
       <c r="Q10" s="2" t="inlineStr"/>
       <c r="R10" s="2" t="inlineStr"/>
       <c r="S10" s="2" t="inlineStr"/>
-      <c r="T10" s="2" t="n">
-        <v>0</v>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U10" s="2" t="inlineStr"/>
       <c r="V10" s="2" t="inlineStr">
@@ -1049,19 +1083,27 @@
       <c r="Y10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr"/>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050271</t>
+        </is>
+      </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>intervention development process</t>
+          <t>development process</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>A process that is creation a product, commodity, service or intervention.</t>
+        </is>
+      </c>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>development process</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1084,8 +1126,10 @@
       <c r="Q11" s="2" t="inlineStr"/>
       <c r="R11" s="2" t="inlineStr"/>
       <c r="S11" s="2" t="inlineStr"/>
-      <c r="T11" s="2" t="n">
-        <v>0</v>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U11" s="2" t="inlineStr"/>
       <c r="V11" s="2" t="inlineStr">
@@ -1105,7 +1149,7 @@
       <c r="A12" s="2" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>patient and public involvement</t>
+          <t>engagement</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
@@ -1137,8 +1181,10 @@
       <c r="Q12" s="2" t="inlineStr"/>
       <c r="R12" s="2" t="inlineStr"/>
       <c r="S12" s="2" t="inlineStr"/>
-      <c r="T12" s="2" t="n">
-        <v>0</v>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U12" s="2" t="inlineStr"/>
       <c r="V12" s="2" t="inlineStr">
@@ -1158,7 +1204,7 @@
       <c r="A13" s="2" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>patient and public involvement and engagement</t>
+          <t>intervention development process</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
@@ -1190,8 +1236,10 @@
       <c r="Q13" s="2" t="inlineStr"/>
       <c r="R13" s="2" t="inlineStr"/>
       <c r="S13" s="2" t="inlineStr"/>
-      <c r="T13" s="2" t="n">
-        <v>0</v>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U13" s="2" t="inlineStr"/>
       <c r="V13" s="2" t="inlineStr">
@@ -1211,7 +1259,7 @@
       <c r="A14" s="2" t="inlineStr"/>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>product development process</t>
+          <t>patient and public involvement</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
@@ -1243,8 +1291,10 @@
       <c r="Q14" s="2" t="inlineStr"/>
       <c r="R14" s="2" t="inlineStr"/>
       <c r="S14" s="2" t="inlineStr"/>
-      <c r="T14" s="2" t="n">
-        <v>0</v>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U14" s="2" t="inlineStr"/>
       <c r="V14" s="2" t="inlineStr">
@@ -1264,7 +1314,7 @@
       <c r="A15" s="2" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>project development process</t>
+          <t>patient and public involvement and engagement</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
@@ -1296,8 +1346,10 @@
       <c r="Q15" s="2" t="inlineStr"/>
       <c r="R15" s="2" t="inlineStr"/>
       <c r="S15" s="2" t="inlineStr"/>
-      <c r="T15" s="2" t="n">
-        <v>0</v>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U15" s="2" t="inlineStr"/>
       <c r="V15" s="2" t="inlineStr">
@@ -1317,7 +1369,7 @@
       <c r="A16" s="2" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>service development process</t>
+          <t>product development process</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
@@ -1349,8 +1401,10 @@
       <c r="Q16" s="2" t="inlineStr"/>
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr"/>
-      <c r="T16" s="2" t="n">
-        <v>0</v>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U16" s="2" t="inlineStr"/>
       <c r="V16" s="2" t="inlineStr">
@@ -1367,73 +1421,79 @@
       <c r="Y16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>stakeholder</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>A person, group or organisation that has a stakeholder role.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>stakeholder role</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="A17" s="2" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>project development process</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>development process</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>Intervention development</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr"/>
+      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="inlineStr"/>
+      <c r="S17" s="2" t="inlineStr"/>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr"/>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="X17" s="2" t="inlineStr"/>
+      <c r="Y17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050272</t>
-        </is>
-      </c>
+      <c r="A18" s="2" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>stakeholder role</t>
+          <t>service development process</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>A role that is being involved with or affected by a project, service, intervention, commodity, product or enterprise.</t>
-        </is>
-      </c>
+      <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>development process</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1451,8 +1511,10 @@
       <c r="Q18" s="2" t="inlineStr"/>
       <c r="R18" s="2" t="inlineStr"/>
       <c r="S18" s="2" t="inlineStr"/>
-      <c r="T18" s="2" t="n">
-        <v>0</v>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U18" s="2" t="inlineStr"/>
       <c r="V18" s="2" t="inlineStr">
@@ -1467,6 +1529,132 @@
       </c>
       <c r="X18" s="2" t="inlineStr"/>
       <c r="Y18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050276</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>stakeholder</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>A person, group or organisation that has a stakeholder role.</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Intervention development</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>stakeholder role</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr"/>
+      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="X19" s="2" t="inlineStr"/>
+      <c r="Y19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050272</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>stakeholder role</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>A role that is being involved with or affected by a project, service, intervention, commodity, product or enterprise.</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>Intervention development</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr"/>
+      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="X20" s="2" t="inlineStr"/>
+      <c r="Y20" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Intervention development/BCIO intervention development.xlsx
+++ b/Intervention development/BCIO intervention development.xlsx
@@ -583,7 +583,11 @@
           <t>independent continuant</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
+        </is>
+      </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Intervention development</t>
@@ -599,7 +603,9 @@
       <c r="Q2" s="2" t="inlineStr"/>
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr"/>
-      <c r="T2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="U2" s="2" t="inlineStr"/>
       <c r="V2" s="2" t="inlineStr">
         <is>
@@ -615,14 +621,22 @@
       <c r="Y2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050277</t>
+        </is>
+      </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">behaviour change intervention development process </t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>An intervention development process that is of a behaviour change intervention.</t>
+        </is>
+      </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
@@ -746,7 +760,7 @@
       <c r="C5" s="2" t="inlineStr"/>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>A process</t>
+          <t>A development process in which agents work together to achieve some common objective.</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
@@ -796,14 +810,22 @@
       <c r="Y5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr"/>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050278</t>
+        </is>
+      </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>consultation</t>
+          <t>consultation process</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>A development process in which a developer obtains relevant beliefs and experiences of stakeholder.</t>
+        </is>
+      </c>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
@@ -890,7 +912,9 @@
       <c r="Q7" s="2" t="inlineStr"/>
       <c r="R7" s="2" t="inlineStr"/>
       <c r="S7" s="2" t="inlineStr"/>
-      <c r="T7" s="2" t="inlineStr"/>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="U7" s="2" t="inlineStr"/>
       <c r="V7" s="2" t="inlineStr">
         <is>
@@ -906,14 +930,22 @@
       <c r="Y7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr"/>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050279</t>
+        </is>
+      </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
           <t>developer role</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>A role that involves having some responsibility for creating a product, service or intervention.</t>
+        </is>
+      </c>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
@@ -974,7 +1006,7 @@
       <c r="C9" s="2" t="inlineStr"/>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>A person, group or organisation that has a development partner role.</t>
+          <t>An agent that has a development partner role.</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -988,7 +1020,11 @@
           <t>agent</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
+        </is>
+      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
           <t>Intervention development</t>
@@ -1028,14 +1064,22 @@
       <c r="Y9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr"/>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050280</t>
+        </is>
+      </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
           <t>development partner role</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>A role that involves involves active participation in and a share of the responsibility for a development process.</t>
+        </is>
+      </c>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
@@ -1146,14 +1190,22 @@
       <c r="Y11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr"/>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050281</t>
+        </is>
+      </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>engagement</t>
+          <t>intervention development process</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>A development process that is for an intervention.</t>
+        </is>
+      </c>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
@@ -1204,7 +1256,7 @@
       <c r="A13" s="2" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>intervention development process</t>
+          <t>patient and public involvement</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
@@ -1259,7 +1311,7 @@
       <c r="A14" s="2" t="inlineStr"/>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>patient and public involvement</t>
+          <t>patient and public involvement and engagement</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
@@ -1314,7 +1366,7 @@
       <c r="A15" s="2" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>patient and public involvement and engagement</t>
+          <t>product development process</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
@@ -1369,7 +1421,7 @@
       <c r="A16" s="2" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>product development process</t>
+          <t>project development process</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
@@ -1424,7 +1476,7 @@
       <c r="A17" s="2" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>project development process</t>
+          <t>service development process</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
@@ -1476,24 +1528,32 @@
       <c r="Y17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr"/>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050276</t>
+        </is>
+      </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>service development process</t>
+          <t>stakeholder</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>An agent that has a stakeholder role.</t>
+        </is>
+      </c>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>development process</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1504,7 +1564,11 @@
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>stakeholder role</t>
+        </is>
+      </c>
       <c r="N18" s="2" t="inlineStr"/>
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr"/>
@@ -1533,28 +1597,32 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050276</t>
+          <t>BCIO:050282</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>stakeholder</t>
+          <t>stakeholder engagement process</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>A person, group or organisation that has a stakeholder role.</t>
+          <t>A process in which in the course of development a developer discovers and takes account of the beliefs, feelings and experiences of stakeholders.</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr"/>
+          <t>development process</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
           <t>Intervention development</t>
@@ -1563,11 +1631,7 @@
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>stakeholder role</t>
-        </is>
-      </c>
+      <c r="M19" s="2" t="inlineStr"/>
       <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="inlineStr"/>
@@ -1619,7 +1683,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>role</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">

--- a/Intervention development/BCIO intervention development.xlsx
+++ b/Intervention development/BCIO intervention development.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,8 +603,10 @@
       <c r="Q2" s="2" t="inlineStr"/>
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr"/>
-      <c r="T2" s="2" t="n">
-        <v>0</v>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U2" s="2" t="inlineStr"/>
       <c r="V2" s="2" t="inlineStr">
@@ -912,8 +914,10 @@
       <c r="Q7" s="2" t="inlineStr"/>
       <c r="R7" s="2" t="inlineStr"/>
       <c r="S7" s="2" t="inlineStr"/>
-      <c r="T7" s="2" t="n">
-        <v>0</v>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U7" s="2" t="inlineStr"/>
       <c r="V7" s="2" t="inlineStr">
@@ -943,7 +947,7 @@
       <c r="C8" s="2" t="inlineStr"/>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>A role that involves having some responsibility for creating a product, service or intervention.</t>
+          <t>A role that involves having some responsibility for a development process.</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
@@ -1140,7 +1144,7 @@
       <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>A process that is creation a product, commodity, service or intervention.</t>
+          <t>A process that is creation, modification or tailored application of a project, service, intervention, commodity, product or enterprise.</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
@@ -1253,14 +1257,22 @@
       <c r="Y12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr"/>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050277</t>
+        </is>
+      </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>patient and public involvement</t>
+          <t>patient and public involvement and engagement</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>A development process in which patients or members of the public participate by virtue of their stakeholder role.</t>
+        </is>
+      </c>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
@@ -1308,14 +1320,22 @@
       <c r="Y13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr"/>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050278</t>
+        </is>
+      </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>patient and public involvement and engagement</t>
+          <t>product development process</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>A development process that is of a product.</t>
+        </is>
+      </c>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
@@ -1363,14 +1383,22 @@
       <c r="Y14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr"/>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050279</t>
+        </is>
+      </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>product development process</t>
+          <t>project development process</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>A development process that is of a project.</t>
+        </is>
+      </c>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
@@ -1418,14 +1446,22 @@
       <c r="Y15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr"/>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050280</t>
+        </is>
+      </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>project development process</t>
+          <t>service development process</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>A development process that is of a service.</t>
+        </is>
+      </c>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
@@ -1473,24 +1509,32 @@
       <c r="Y16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr"/>
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050276</t>
+        </is>
+      </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>service development process</t>
+          <t>stakeholder</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>An agent that has a stakeholder role.</t>
+        </is>
+      </c>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>development process</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1501,7 +1545,11 @@
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>stakeholder role</t>
+        </is>
+      </c>
       <c r="N17" s="2" t="inlineStr"/>
       <c r="O17" s="2" t="inlineStr"/>
       <c r="P17" s="2" t="inlineStr"/>
@@ -1530,30 +1578,30 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050276</t>
+          <t>BCIO:050282</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>stakeholder</t>
+          <t>stakeholder engagement process</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>An agent that has a stakeholder role.</t>
+          <t>A process in which in the course of development a developer discovers and takes account of the beliefs, feelings and experiences of stakeholders.</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>development process</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1564,11 +1612,7 @@
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>stakeholder role</t>
-        </is>
-      </c>
+      <c r="M18" s="2" t="inlineStr"/>
       <c r="N18" s="2" t="inlineStr"/>
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr"/>
@@ -1597,30 +1641,30 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050282</t>
+          <t>BCIO:050272</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>stakeholder engagement process</t>
+          <t>stakeholder role</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>A process in which in the course of development a developer discovers and takes account of the beliefs, feelings and experiences of stakeholders.</t>
+          <t>A role that is being involved with or affected by a project, service, intervention, commodity, product or enterprise.</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>development process</t>
+          <t>role</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>role</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1657,69 +1701,6 @@
       <c r="X19" s="2" t="inlineStr"/>
       <c r="Y19" s="2" t="inlineStr"/>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050272</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>stakeholder role</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>A role that is being involved with or affected by a project, service, intervention, commodity, product or enterprise.</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Intervention development</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr"/>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr"/>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="W20" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="X20" s="2" t="inlineStr"/>
-      <c r="Y20" s="2" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Intervention development/BCIO intervention development.xlsx
+++ b/Intervention development/BCIO intervention development.xlsx
@@ -1448,7 +1448,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050280</t>
+          <t>BCIO:050283</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">

--- a/Intervention development/BCIO intervention development.xlsx
+++ b/Intervention development/BCIO intervention development.xlsx
@@ -1385,7 +1385,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050279</t>
+          <t>BCIO:050285</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">

--- a/Intervention development/BCIO intervention development.xlsx
+++ b/Intervention development/BCIO intervention development.xlsx
@@ -1322,7 +1322,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050278</t>
+          <t>BCIO:050286</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">

--- a/Intervention development/BCIO intervention development.xlsx
+++ b/Intervention development/BCIO intervention development.xlsx
@@ -1259,7 +1259,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050277</t>
+          <t>BCIO:050287</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">

--- a/Intervention development/BCIO intervention development.xlsx
+++ b/Intervention development/BCIO intervention development.xlsx
@@ -905,7 +905,11 @@
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>developer role</t>
+        </is>
+      </c>
       <c r="L7" s="2" t="inlineStr"/>
       <c r="M7" s="2" t="inlineStr"/>
       <c r="N7" s="2" t="inlineStr"/>

--- a/Intervention development/BCIO intervention development.xlsx
+++ b/Intervention development/BCIO intervention development.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\ontologies\Intervention development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\ontologies\Intervention development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77147403-EAA7-4E6E-B0D3-730D8C017413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1E24CA-7B7F-4342-8AE9-8DBD3A7F040C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>A role that is being involved with or affected by a project, service, intervention, commodity, product or enterprise.</t>
+  </si>
+  <si>
+    <t>Since co-production can be undertaken to varying degrees and in different ways, in any case where development of something is declared to have involved co-production it is necessary to specify in what way and to what extent.</t>
   </si>
 </sst>
 </file>
@@ -299,6 +302,7 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -314,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -322,14 +326,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,20 +661,31 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" customWidth="1"/>
-    <col min="13" max="13" width="25.42578125" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="26.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="33.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="29.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="55.85546875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,803 +759,805 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="I6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
+      <c r="I8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
+      <c r="I9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="I10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="I11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="I12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="I13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="I14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="I15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="I16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="I17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="I18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
+      <c r="I19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y19">
